--- a/SENSYS_MeetingMinutes_Documentation(2014).xlsx
+++ b/SENSYS_MeetingMinutes_Documentation(2014).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="4005" yWindow="1710" windowWidth="14805" windowHeight="6330" tabRatio="574"/>
@@ -17,7 +17,7 @@
     <definedName name="VSTS_ValidationRange_577abc47b9c940e4bc02119bbc5f6efd" hidden="1">[1]VSTS_ValidationWS_1!$BO$1:$BO$5</definedName>
     <definedName name="VSTS_ValidationRange_8203912516ef49d29da2f1ff8152a8f2" hidden="1">[1]VSTS_ValidationWS_1!$BM$1:$BM$53</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
   <si>
     <t>Meeting Invite &amp; Agenda</t>
   </si>
@@ -657,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -815,55 +815,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,6 +823,63 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,6 +890,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1247,7 +1259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1282,7 +1294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1491,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,8 +1521,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
       <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1530,10 +1542,10 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="64" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -1549,10 +1561,10 @@
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="64">
         <v>41642</v>
       </c>
       <c r="C3" s="15">
@@ -1568,10 +1580,10 @@
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="64">
         <v>0.97916666666666663</v>
       </c>
       <c r="C4" s="17">
@@ -1587,10 +1599,10 @@
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="64" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -1606,10 +1618,10 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="53" t="s">
@@ -1625,18 +1637,18 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="10"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1644,12 +1656,12 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="71"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="10"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1657,12 +1669,12 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="71"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="10"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1670,12 +1682,12 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="71"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="10"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1698,19 +1710,19 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="72"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
@@ -1925,10 +1937,10 @@
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="58"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
       <c r="E23" s="49"/>
@@ -2030,10 +2042,10 @@
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="58"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="50"/>
       <c r="D30" s="50"/>
       <c r="E30" s="50"/>
@@ -2045,10 +2057,10 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="56"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="15">
         <v>41667</v>
       </c>
@@ -2062,10 +2074,10 @@
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="28">
         <v>0.6875</v>
       </c>
@@ -2079,10 +2091,10 @@
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="56"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="28">
         <v>0.73611111111111116</v>
       </c>
@@ -2096,10 +2108,10 @@
       <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="56"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="29">
         <f>C33-C32</f>
         <v>4.861111111111116E-2</v>
@@ -2341,8 +2353,261 @@
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
     </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="60"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="56"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="64"/>
+      <c r="C54" s="15">
+        <v>41667</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="64"/>
+      <c r="C55" s="28">
+        <v>0.6875</v>
+      </c>
+      <c r="D55" s="28"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="64"/>
+      <c r="C56" s="28">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D56" s="28"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="64"/>
+      <c r="C57" s="29">
+        <f>C56-C55</f>
+        <v>4.861111111111116E-2</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="44">
+        <v>1</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="44">
+        <v>2</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="44">
+        <v>3</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="44">
+        <v>4</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="44">
+        <v>5</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="44">
+        <v>6</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="44">
+        <v>7</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="44">
+        <v>8</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="44">
+        <v>9</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="44">
+        <v>10</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="25"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="23">
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A1:B1"/>
@@ -2351,16 +2616,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
